--- a/Data/metadata/modern_metadata.xlsx
+++ b/Data/metadata/modern_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4CA93-5E28-1941-B31B-78D56AD421CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2F56D6-AC6A-724D-AADE-72689CFC2A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="2880" windowWidth="26440" windowHeight="15380" xr2:uid="{515961C5-6684-B445-B334-1523EF12FE11}"/>
   </bookViews>

--- a/Data/metadata/modern_metadata.xlsx
+++ b/Data/metadata/modern_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2F56D6-AC6A-724D-AADE-72689CFC2A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB70A71-446E-8744-A9CB-8391484AA026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="2880" windowWidth="26440" windowHeight="15380" xr2:uid="{515961C5-6684-B445-B334-1523EF12FE11}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>specimen_no</t>
   </si>
@@ -195,6 +195,24 @@
   </si>
   <si>
     <t>NL23 #1</t>
+  </si>
+  <si>
+    <t>1223F</t>
+  </si>
+  <si>
+    <t>1224CV</t>
+  </si>
+  <si>
+    <t>1225CV</t>
+  </si>
+  <si>
+    <t>1226CV</t>
+  </si>
+  <si>
+    <t>1227CV</t>
+  </si>
+  <si>
+    <t>TS-10</t>
   </si>
 </sst>
 </file>
@@ -581,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93E3AF7-9CEB-6D4A-A827-EAB7732D54A0}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,6 +882,46 @@
         <v>52</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
